--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_280.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_280.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(11.0, 66.82)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(10.94, 65.78)]</t>
+          <t>[('0:00:07.100000', '0:00:18.300000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8)]</t>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4285714285714285</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:01:42.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:09.700000', '0:00:15.020000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_282</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1789473684210526</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.24, 28.04)]</t>
+          <t>[['Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.88, 21.16)]</t>
+          <t>[('0:00:51.853310', '0:00:57.054580')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:44.917324', '0:00:48.272607')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58)]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1980676328502415</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D', 'D/b7']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E', 'E/7']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(29.965374, 35.781972)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.935986, 13.148866)]</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.34, 6.82)]</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:09.100000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (25.48, 32.76)]</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:07.700000', '0:00:18.640000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(8.2, 23.6)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38)]</t>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(88.86, 97.74)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(106.96, 119.34)]</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09823284823284824</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min/5', 'Bb', 'Eb']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(23.563446, 27.290249)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(43.926916, 52.959478)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
